--- a/xlsx/纳帕 (加利福尼亚州)_intext.xlsx
+++ b/xlsx/纳帕 (加利福尼亚州)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="304">
   <si>
     <t>纳帕 (加利福尼亚州)</t>
   </si>
@@ -41,37 +41,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>加利福尼亞州行政區劃</t>
+    <t>加利福尼亚州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%B8%95%E7%B8%A3</t>
   </si>
   <si>
-    <t>納帕縣</t>
+    <t>纳帕县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E9%95%B7</t>
   </si>
   <si>
-    <t>市長</t>
+    <t>市长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010_United_States_Census</t>
@@ -149,9 +149,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Napa_River</t>
   </si>
   <si>
@@ -185,7 +182,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E6%8B%89%E7%B6%AD</t>
   </si>
   <si>
-    <t>泰拉維</t>
+    <t>泰拉维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -215,7 +212,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E5%BC%8F%E7%9B%AE%E5%BD%95</t>
@@ -239,7 +236,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沙加緬度 (加利福尼亞州)</t>
+    <t>沙加缅度 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E9%80%89%E4%B8%BE</t>
@@ -251,13 +248,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>加利福尼亞州歷史</t>
+    <t>加利福尼亚州历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E7%B1%B3%E9%81%94%E7%B8%A3</t>
   </si>
   <si>
-    <t>阿拉米達縣</t>
+    <t>阿拉米达县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B4%BE%E6%81%A9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -275,7 +272,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布特郡 (加利福尼亞州)</t>
+    <t>布特郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E9%9F%A6%E6%8B%89%E6%96%AF%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -293,7 +290,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%89%B9%E6%8B%89%E7%A7%91%E6%96%AF%E5%A1%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>康特拉科斯塔縣 (加利福尼亞州)</t>
+    <t>康特拉科斯塔县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B0%94%E8%AF%BA%E7%89%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -311,7 +308,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E9%9B%B7%E6%96%AF%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費雷斯諾縣 (加利福尼亞州)</t>
+    <t>费雷斯诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E4%BC%A6%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -323,7 +320,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E5%A0%A1%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洪堡縣 (加利福尼亞州)</t>
+    <t>洪堡县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E7%9A%AE%E9%87%8C%E5%B0%94%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%85%8B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>萊克縣 (加利福尼亞州)</t>
+    <t>莱克县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A3%AE%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -371,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬德拉縣 (加利福尼亞州)</t>
+    <t>马德拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9E%97%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -395,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E5%A1%9E%E5%BE%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>默塞德縣 (加利福尼亞州)</t>
+    <t>默塞德县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%A4%9A%E5%85%8B%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -413,19 +410,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E9%9B%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙特雷縣 (加利福尼亞州)</t>
+    <t>蒙特雷县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>內華達縣 (加利福尼亞州)</t>
+    <t>内华达县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>橙縣 (加利福尼亞州)</t>
+    <t>橙县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%8E%B1%E7%91%9F%E5%8E%BF</t>
@@ -443,25 +440,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%BF%B1%E7%B8%A3</t>
   </si>
   <si>
-    <t>河濱縣</t>
+    <t>河滨县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E5%B0%BC%E6%89%98%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝尼托縣 (加利福尼亞州)</t>
+    <t>圣贝尼托县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E7%B4%8D%E8%BF%AA%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝納迪諾縣 (加利福尼亞州)</t>
+    <t>圣贝纳迪诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖地牙哥郡 (加利福尼亞州)</t>
+    <t>圣地牙哥郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1</t>
@@ -473,31 +470,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E7%B8%A3</t>
   </si>
   <si>
-    <t>聖華金縣</t>
+    <t>圣华金县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E6%96%AF-%E5%A5%A7%E6%AF%94%E6%96%AF%E6%B3%A2%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖路易斯-奧比斯波縣 (加利福尼亞州)</t>
+    <t>圣路易斯-奥比斯波县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%88%81%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬刁郡 (加利福尼亞州)</t>
+    <t>圣马刁郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E5%B7%B4%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖巴巴拉縣 (加利福尼亞州)</t>
+    <t>圣巴巴拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E6%8B%89%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖塔克拉拉縣 (加利福尼亞州)</t>
+    <t>圣塔克拉拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A1%94%E5%85%8B%E9%B2%81%E5%85%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -515,7 +512,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>謝拉縣 (加利福尼亞州)</t>
+    <t>谢拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E6%96%AF%E5%9F%BA%E5%B0%A4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -581,7 +578,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E6%B4%9B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>優洛縣 (加利福尼亞州)</t>
+    <t>优洛县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -617,13 +614,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%80%AB%E4%BB%A3%E7%88%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格倫代爾 (加利福尼亞州)</t>
+    <t>格伦代尔 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%BE%B7%E6%96%AF%E6%89%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>莫德斯托 (加利福尼亞州)</t>
+    <t>莫德斯托 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%8B%E5%85%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -635,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%88%A9%E8%92%99_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費利蒙 (加利福尼亞州)</t>
+    <t>费利蒙 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B2%83%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -653,7 +650,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B9%E6%9B%BE%E5%BE%B7%E5%A5%A7%E5%85%8B%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>紹曾德奧克斯 (加利福尼亞州)</t>
+    <t>绍曾德奥克斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E4%B8%81_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -671,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安大略 (加利福尼亞州)</t>
+    <t>安大略 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -695,19 +692,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8F%AF%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬可斯 (加利福尼亞州)</t>
+    <t>圣马可斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%A8%E5%9F%8E</t>
   </si>
   <si>
-    <t>紅木城</t>
+    <t>红木城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (加利福尼亞州)</t>
+    <t>圣荷西 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E5%B0%BC%E9%9F%A6%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -725,13 +722,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E7%BF%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安那翰 (加利福尼亞州)</t>
+    <t>安那翰 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%96%87_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>歐文 (加利福尼亞州)</t>
+    <t>欧文 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%8E%9B%E4%B8%BD%E4%BA%9A_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -749,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E8%8E%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖羅莎 (加利福尼亞州)</t>
+    <t>圣罗莎 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%A1%94%E5%8D%A2%E9%A9%AC</t>
@@ -779,7 +776,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A1%9E%E5%88%A9%E4%BA%9E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>維塞利亞 (加利福尼亞州)</t>
+    <t>维塞利亚 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -791,7 +788,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%9F%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>尤巴城 (加利福尼亞州)</t>
+    <t>尤巴城 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%8F%E5%B0%94</t>
@@ -857,13 +854,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%93%88%E9%9F%8B%E6%B2%99%E6%BC%A0</t>
   </si>
   <si>
-    <t>莫哈韋沙漠</t>
+    <t>莫哈韦沙漠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>北加利福尼亞州</t>
+    <t>北加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B4%B9%E5%B0%94%E5%8D%97%E5%A4%9A%E8%B0%B7</t>
@@ -875,7 +872,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>舊金山灣區</t>
+    <t>旧金山湾区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%8D%8A%E5%B2%9B</t>
@@ -893,13 +890,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E8%B0%B7</t>
   </si>
   <si>
-    <t>聖華金谷</t>
+    <t>圣华金谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>內華達山脈</t>
+    <t>内华达山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%85%E8%B0%B7</t>
@@ -911,13 +908,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>南加利福尼亞</t>
+    <t>南加利福尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1909,7 +1906,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G22" t="n">
         <v>9</v>
@@ -1935,10 +1932,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1964,10 +1961,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -1993,10 +1990,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2022,10 +2019,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2051,10 +2048,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2080,10 +2077,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2109,10 +2106,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2138,10 +2135,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2167,10 +2164,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -2196,10 +2193,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2225,10 +2222,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2254,10 +2251,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2283,10 +2280,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>3</v>
@@ -2315,7 +2312,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G36" t="n">
         <v>10</v>
@@ -2341,10 +2338,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2370,10 +2367,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -2399,10 +2396,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2428,10 +2425,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2486,10 +2483,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2515,10 +2512,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
         <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2544,10 +2541,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2573,10 +2570,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
         <v>85</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2602,10 +2599,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" t="s">
         <v>87</v>
-      </c>
-      <c r="F46" t="s">
-        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2631,10 +2628,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
         <v>89</v>
-      </c>
-      <c r="F47" t="s">
-        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2660,10 +2657,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2689,10 +2686,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2718,10 +2715,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2747,10 +2744,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2776,10 +2773,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
         <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2805,10 +2802,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2834,10 +2831,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2863,10 +2860,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2892,10 +2889,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2921,10 +2918,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2950,10 +2947,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2979,10 +2976,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3008,10 +3005,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -3037,10 +3034,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3066,10 +3063,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3095,10 +3092,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3124,10 +3121,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3153,10 +3150,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3182,10 +3179,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3211,10 +3208,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3240,10 +3237,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3269,10 +3266,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3298,10 +3295,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3327,10 +3324,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3356,10 +3353,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3385,10 +3382,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3414,10 +3411,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3443,10 +3440,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3472,10 +3469,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3501,10 +3498,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3530,10 +3527,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3559,10 +3556,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3588,10 +3585,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3617,10 +3614,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3646,10 +3643,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>4</v>
@@ -3675,10 +3672,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3704,10 +3701,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3733,10 +3730,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3762,10 +3759,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3791,10 +3788,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3820,10 +3817,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3849,10 +3846,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3878,10 +3875,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3907,10 +3904,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3936,10 +3933,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3965,10 +3962,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3994,10 +3991,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4023,10 +4020,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -4052,10 +4049,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4081,10 +4078,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4110,10 +4107,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4139,10 +4136,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4168,10 +4165,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4197,10 +4194,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4226,10 +4223,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4255,10 +4252,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4284,10 +4281,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4313,10 +4310,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4342,10 +4339,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" t="s">
         <v>207</v>
-      </c>
-      <c r="F106" t="s">
-        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4371,10 +4368,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>208</v>
+      </c>
+      <c r="F107" t="s">
         <v>209</v>
-      </c>
-      <c r="F107" t="s">
-        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4400,10 +4397,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" t="s">
         <v>211</v>
-      </c>
-      <c r="F108" t="s">
-        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4429,10 +4426,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" t="s">
         <v>213</v>
-      </c>
-      <c r="F109" t="s">
-        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4458,10 +4455,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
         <v>215</v>
-      </c>
-      <c r="F110" t="s">
-        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4487,10 +4484,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F111" t="s">
         <v>217</v>
-      </c>
-      <c r="F111" t="s">
-        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4516,10 +4513,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" t="s">
         <v>219</v>
-      </c>
-      <c r="F112" t="s">
-        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4545,10 +4542,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>220</v>
+      </c>
+      <c r="F113" t="s">
         <v>221</v>
-      </c>
-      <c r="F113" t="s">
-        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4574,10 +4571,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>222</v>
+      </c>
+      <c r="F114" t="s">
         <v>223</v>
-      </c>
-      <c r="F114" t="s">
-        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4603,10 +4600,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>224</v>
+      </c>
+      <c r="F115" t="s">
         <v>225</v>
-      </c>
-      <c r="F115" t="s">
-        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4632,10 +4629,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>148</v>
+      </c>
+      <c r="F116" t="s">
         <v>149</v>
-      </c>
-      <c r="F116" t="s">
-        <v>150</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -4661,10 +4658,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4690,10 +4687,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4719,10 +4716,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4748,10 +4745,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
         <v>233</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4777,10 +4774,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>234</v>
+      </c>
+      <c r="F121" t="s">
         <v>235</v>
-      </c>
-      <c r="F121" t="s">
-        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4806,10 +4803,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>236</v>
+      </c>
+      <c r="F122" t="s">
         <v>237</v>
-      </c>
-      <c r="F122" t="s">
-        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4835,10 +4832,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>238</v>
+      </c>
+      <c r="F123" t="s">
         <v>239</v>
-      </c>
-      <c r="F123" t="s">
-        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4864,10 +4861,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124" t="s">
         <v>241</v>
-      </c>
-      <c r="F124" t="s">
-        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4893,10 +4890,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>242</v>
+      </c>
+      <c r="F125" t="s">
         <v>243</v>
-      </c>
-      <c r="F125" t="s">
-        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4922,10 +4919,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>244</v>
+      </c>
+      <c r="F126" t="s">
         <v>245</v>
-      </c>
-      <c r="F126" t="s">
-        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4951,10 +4948,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>246</v>
+      </c>
+      <c r="F127" t="s">
         <v>247</v>
-      </c>
-      <c r="F127" t="s">
-        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4980,10 +4977,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>248</v>
+      </c>
+      <c r="F128" t="s">
         <v>249</v>
-      </c>
-      <c r="F128" t="s">
-        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5009,10 +5006,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>250</v>
+      </c>
+      <c r="F129" t="s">
         <v>251</v>
-      </c>
-      <c r="F129" t="s">
-        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5038,10 +5035,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>252</v>
+      </c>
+      <c r="F130" t="s">
         <v>253</v>
-      </c>
-      <c r="F130" t="s">
-        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5067,10 +5064,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>254</v>
+      </c>
+      <c r="F131" t="s">
         <v>255</v>
-      </c>
-      <c r="F131" t="s">
-        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5096,10 +5093,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>256</v>
+      </c>
+      <c r="F132" t="s">
         <v>257</v>
-      </c>
-      <c r="F132" t="s">
-        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5125,10 +5122,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>258</v>
+      </c>
+      <c r="F133" t="s">
         <v>259</v>
-      </c>
-      <c r="F133" t="s">
-        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5154,10 +5151,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>260</v>
+      </c>
+      <c r="F134" t="s">
         <v>261</v>
-      </c>
-      <c r="F134" t="s">
-        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5183,10 +5180,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>262</v>
+      </c>
+      <c r="F135" t="s">
         <v>263</v>
-      </c>
-      <c r="F135" t="s">
-        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5212,10 +5209,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>264</v>
+      </c>
+      <c r="F136" t="s">
         <v>265</v>
-      </c>
-      <c r="F136" t="s">
-        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5241,10 +5238,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>266</v>
+      </c>
+      <c r="F137" t="s">
         <v>267</v>
-      </c>
-      <c r="F137" t="s">
-        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5270,10 +5267,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>268</v>
+      </c>
+      <c r="F138" t="s">
         <v>269</v>
-      </c>
-      <c r="F138" t="s">
-        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5299,10 +5296,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>270</v>
+      </c>
+      <c r="F139" t="s">
         <v>271</v>
-      </c>
-      <c r="F139" t="s">
-        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5328,10 +5325,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>272</v>
+      </c>
+      <c r="F140" t="s">
         <v>273</v>
-      </c>
-      <c r="F140" t="s">
-        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5357,10 +5354,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>274</v>
+      </c>
+      <c r="F141" t="s">
         <v>275</v>
-      </c>
-      <c r="F141" t="s">
-        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5386,10 +5383,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>276</v>
+      </c>
+      <c r="F142" t="s">
         <v>277</v>
-      </c>
-      <c r="F142" t="s">
-        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5415,10 +5412,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>278</v>
+      </c>
+      <c r="F143" t="s">
         <v>279</v>
-      </c>
-      <c r="F143" t="s">
-        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5444,10 +5441,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>280</v>
+      </c>
+      <c r="F144" t="s">
         <v>281</v>
-      </c>
-      <c r="F144" t="s">
-        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5473,10 +5470,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>282</v>
+      </c>
+      <c r="F145" t="s">
         <v>283</v>
-      </c>
-      <c r="F145" t="s">
-        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5502,10 +5499,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>284</v>
+      </c>
+      <c r="F146" t="s">
         <v>285</v>
-      </c>
-      <c r="F146" t="s">
-        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>5</v>
@@ -5531,10 +5528,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>286</v>
+      </c>
+      <c r="F147" t="s">
         <v>287</v>
-      </c>
-      <c r="F147" t="s">
-        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5560,10 +5557,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>288</v>
+      </c>
+      <c r="F148" t="s">
         <v>289</v>
-      </c>
-      <c r="F148" t="s">
-        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5589,10 +5586,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>290</v>
+      </c>
+      <c r="F149" t="s">
         <v>291</v>
-      </c>
-      <c r="F149" t="s">
-        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5618,10 +5615,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>292</v>
+      </c>
+      <c r="F150" t="s">
         <v>293</v>
-      </c>
-      <c r="F150" t="s">
-        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5647,10 +5644,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>294</v>
+      </c>
+      <c r="F151" t="s">
         <v>295</v>
-      </c>
-      <c r="F151" t="s">
-        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5676,10 +5673,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>296</v>
+      </c>
+      <c r="F152" t="s">
         <v>297</v>
-      </c>
-      <c r="F152" t="s">
-        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5705,10 +5702,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>298</v>
+      </c>
+      <c r="F153" t="s">
         <v>299</v>
-      </c>
-      <c r="F153" t="s">
-        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>3</v>
@@ -5734,10 +5731,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>300</v>
+      </c>
+      <c r="F154" t="s">
         <v>301</v>
-      </c>
-      <c r="F154" t="s">
-        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5763,10 +5760,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>302</v>
+      </c>
+      <c r="F155" t="s">
         <v>303</v>
-      </c>
-      <c r="F155" t="s">
-        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
